--- a/data/eBooks-main/current/azure-quick-start/Azure-Quick-Start-for-NET-Developers.pdf.hwaifs/tables/py/gmft/df.tables-4.xlsx
+++ b/data/eBooks-main/current/azure-quick-start/Azure-Quick-Start-for-NET-Developers.pdf.hwaifs/tables/py/gmft/df.tables-4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,14 +431,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>application, but rather stores that you use for data analytics and reporting. Azure two data stores that suitable for amounts of</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
+          <t>big data and data analytics. These are not typical stores that you use with your</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -446,14 +442,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>provides are very storing large for data the Azure SQL Data Warehouse and the Azure Data</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lake</t>
-        </is>
-      </c>
+          <t>application, but rather stores that you use for data analytics and reporting.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -461,10 +453,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>analytics purposes: Store.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Azure provides two data stores that are very suitable for storing large amounts of</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,12 +468,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Each of these can hold petabytes of data. In fact, Azure Data Lake Store doesn’t</t>
+          <t>for data analytics purposes: the Azure SQL Data Warehouse and the Azure Data</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>Lake</t>
         </is>
       </c>
     </row>
@@ -487,7 +483,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>have limits on the amount of data and the file sizes that you can store.</t>
+          <t>Store.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -498,12 +494,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>You use Azure SQL Data Warehouse when know the questions that want</t>
+          <t>Each of these can hold petabytes of data. In fact, Azure Data Lake Store doesn’t</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>even</t>
         </is>
       </c>
     </row>
@@ -513,14 +509,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>you you answer with data analytics. You define a data schema that determines what your</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
+          <t>have limits on the amount of data and the file sizes that you can store.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -528,10 +520,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>will look like and how it can be used.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>You use Azure SQL Data Warehouse when you know the questions that you want</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -539,12 +535,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>You use Azure Data Lake Store when you don’t know the questions that you want</t>
+          <t>answer with data analytics. You define a data schema that determines what your</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>data</t>
         </is>
       </c>
     </row>
@@ -554,14 +550,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>answer yet. You do not have to define a data schema for the Data Lake Store. You</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>store</t>
-        </is>
-      </c>
+          <t>will look like and how it can be used.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -569,10 +561,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>data in its native format.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>You use Azure Data Lake Store when you don’t know the questions that you want</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -580,12 +576,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>You can work with each of these data stores with tools in Visual Studio. And you</t>
+          <t>answer yet. You do not have to define a data schema for the Data Lake Store. You</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>can use</t>
+          <t>store</t>
         </is>
       </c>
     </row>
@@ -595,7 +591,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>any SQL tool, like SQL Server Management Studio, to work with Azure SQL Data</t>
+          <t>data in its native format.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -606,12 +602,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Warehouse. You can even create eye-popping business intelligence dashboards</t>
+          <t>You can work with each of these data stores with tools in Visual Studio. And you</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>can use</t>
         </is>
       </c>
     </row>
@@ -621,7 +617,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>reports as a non-developer in Power BI.</t>
+          <t>any SQL tool, like SQL Server Management Studio, to work with Azure SQL Data</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -632,12 +628,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Additionally, you can use the Azure Management SDK for .NET to perform</t>
+          <t>Warehouse. You can even create eye-popping business intelligence dashboards</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>and</t>
         </is>
       </c>
     </row>
@@ -647,10 +643,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>reports as a non-developer in Power BI.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Additionally, you can use the Azure Management SDK for .NET to perform</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>management</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>operations on these services. You can, for instance, create a new Data Lake Store</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
